--- a/dist/serena/大类26小类3/集中取货数据小区分派.xlsx
+++ b/dist/serena/大类26小类3/集中取货数据小区分派.xlsx
@@ -12597,7 +12597,7 @@
         <v>121.35825</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12757,7 +12757,7 @@
         <v>121.411411</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12789,7 +12789,7 @@
         <v>121.562487</v>
       </c>
       <c r="J14">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12821,7 +12821,7 @@
         <v>121.32681</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12885,7 +12885,7 @@
         <v>121.408726</v>
       </c>
       <c r="J17">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13077,7 +13077,7 @@
         <v>121.306627</v>
       </c>
       <c r="J23">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -13301,7 +13301,7 @@
         <v>121.352204</v>
       </c>
       <c r="J30">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -13333,7 +13333,7 @@
         <v>121.247689</v>
       </c>
       <c r="J31">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -13397,7 +13397,7 @@
         <v>121.41289</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -13429,7 +13429,7 @@
         <v>121.423426</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -13461,7 +13461,7 @@
         <v>121.169583</v>
       </c>
       <c r="J35">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -13525,7 +13525,7 @@
         <v>121.169928</v>
       </c>
       <c r="J37">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -13557,7 +13557,7 @@
         <v>121.40093</v>
       </c>
       <c r="J38">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -13749,7 +13749,7 @@
         <v>121.178116</v>
       </c>
       <c r="J44">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -13845,7 +13845,7 @@
         <v>121.479176</v>
       </c>
       <c r="J47">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -13877,7 +13877,7 @@
         <v>121.156678</v>
       </c>
       <c r="J48">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -14005,7 +14005,7 @@
         <v>121.662436</v>
       </c>
       <c r="J52">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -14069,7 +14069,7 @@
         <v>121.238815</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -14101,7 +14101,7 @@
         <v>121.39002</v>
       </c>
       <c r="J55">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -14133,7 +14133,7 @@
         <v>121.327706</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -14165,7 +14165,7 @@
         <v>121.653321</v>
       </c>
       <c r="J57">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -14389,7 +14389,7 @@
         <v>121.436238</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -14421,7 +14421,7 @@
         <v>121.473745</v>
       </c>
       <c r="J65">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -14517,7 +14517,7 @@
         <v>121.43325</v>
       </c>
       <c r="J68">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -14549,7 +14549,7 @@
         <v>121.450439</v>
       </c>
       <c r="J69">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -14581,7 +14581,7 @@
         <v>121.32681</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -14645,7 +14645,7 @@
         <v>121.450439</v>
       </c>
       <c r="J72">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -14869,7 +14869,7 @@
         <v>121.177282</v>
       </c>
       <c r="J79">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -14901,7 +14901,7 @@
         <v>121.531504</v>
       </c>
       <c r="J80">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -14965,7 +14965,7 @@
         <v>121.550374</v>
       </c>
       <c r="J82">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -14997,7 +14997,7 @@
         <v>121.304188</v>
       </c>
       <c r="J83">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -15029,7 +15029,7 @@
         <v>121.60866</v>
       </c>
       <c r="J84">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -15093,7 +15093,7 @@
         <v>121.29869</v>
       </c>
       <c r="J86">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -15125,7 +15125,7 @@
         <v>121.502005</v>
       </c>
       <c r="J87">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -15189,7 +15189,7 @@
         <v>121.389076</v>
       </c>
       <c r="J89">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -15285,7 +15285,7 @@
         <v>121.288179</v>
       </c>
       <c r="J92">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -15381,7 +15381,7 @@
         <v>121.289116</v>
       </c>
       <c r="J95">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -15445,7 +15445,7 @@
         <v>121.289116</v>
       </c>
       <c r="J97">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -15477,7 +15477,7 @@
         <v>121.464201</v>
       </c>
       <c r="J98">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -15509,7 +15509,7 @@
         <v>121.493691</v>
       </c>
       <c r="J99">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -15541,7 +15541,7 @@
         <v>121.476086</v>
       </c>
       <c r="J100">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -15733,7 +15733,7 @@
         <v>121.393176</v>
       </c>
       <c r="J106">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -15765,7 +15765,7 @@
         <v>121.289023</v>
       </c>
       <c r="J107">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -15797,7 +15797,7 @@
         <v>121.354723</v>
       </c>
       <c r="J108">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -15829,7 +15829,7 @@
         <v>121.712476</v>
       </c>
       <c r="J109">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -15861,7 +15861,7 @@
         <v>121.128239</v>
       </c>
       <c r="J110">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -15925,7 +15925,7 @@
         <v>121.399724</v>
       </c>
       <c r="J112">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -16053,7 +16053,7 @@
         <v>121.307631</v>
       </c>
       <c r="J116">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -16085,7 +16085,7 @@
         <v>121.604181</v>
       </c>
       <c r="J117">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -16149,7 +16149,7 @@
         <v>121.156</v>
       </c>
       <c r="J119">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -16181,7 +16181,7 @@
         <v>121.480742</v>
       </c>
       <c r="J120">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -16213,7 +16213,7 @@
         <v>121.34094</v>
       </c>
       <c r="J121">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -16245,7 +16245,7 @@
         <v>121.531276</v>
       </c>
       <c r="J122">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -16277,7 +16277,7 @@
         <v>121.462727</v>
       </c>
       <c r="J123">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -16309,7 +16309,7 @@
         <v>121.438325</v>
       </c>
       <c r="J124">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -16341,7 +16341,7 @@
         <v>121.427617</v>
       </c>
       <c r="J125">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -16437,7 +16437,7 @@
         <v>121.610494</v>
       </c>
       <c r="J128">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -16469,7 +16469,7 @@
         <v>121.626399</v>
       </c>
       <c r="J129">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -16533,7 +16533,7 @@
         <v>121.626509</v>
       </c>
       <c r="J131">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -16597,7 +16597,7 @@
         <v>121.151564</v>
       </c>
       <c r="J133">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -16629,7 +16629,7 @@
         <v>121.55485</v>
       </c>
       <c r="J134">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -16757,7 +16757,7 @@
         <v>121.293278</v>
       </c>
       <c r="J138">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -16821,7 +16821,7 @@
         <v>121.255732</v>
       </c>
       <c r="J140">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -16885,7 +16885,7 @@
         <v>121.482119</v>
       </c>
       <c r="J142">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -16949,7 +16949,7 @@
         <v>121.668097</v>
       </c>
       <c r="J144">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -16981,7 +16981,7 @@
         <v>121.289608</v>
       </c>
       <c r="J145">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -17045,7 +17045,7 @@
         <v>121.525278</v>
       </c>
       <c r="J147">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -17141,7 +17141,7 @@
         <v>121.425172</v>
       </c>
       <c r="J150">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -17173,7 +17173,7 @@
         <v>121.31517</v>
       </c>
       <c r="J151">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -17205,7 +17205,7 @@
         <v>121.399735</v>
       </c>
       <c r="J152">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -17269,7 +17269,7 @@
         <v>121.38305</v>
       </c>
       <c r="J154">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -17333,7 +17333,7 @@
         <v>121.451694</v>
       </c>
       <c r="J156">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -17461,7 +17461,7 @@
         <v>121.286651</v>
       </c>
       <c r="J160">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -17557,7 +17557,7 @@
         <v>121.248208</v>
       </c>
       <c r="J163">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -17845,7 +17845,7 @@
         <v>121.709187</v>
       </c>
       <c r="J172">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -17877,7 +17877,7 @@
         <v>121.179413</v>
       </c>
       <c r="J173">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -17909,7 +17909,7 @@
         <v>121.572381</v>
       </c>
       <c r="J174">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -17973,7 +17973,7 @@
         <v>121.276358</v>
       </c>
       <c r="J176">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -18005,7 +18005,7 @@
         <v>121.609867</v>
       </c>
       <c r="J177">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -18037,7 +18037,7 @@
         <v>121.277827</v>
       </c>
       <c r="J178">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -18101,7 +18101,7 @@
         <v>121.567775</v>
       </c>
       <c r="J180">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -18133,7 +18133,7 @@
         <v>121.136003</v>
       </c>
       <c r="J181">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -18165,7 +18165,7 @@
         <v>121.185449</v>
       </c>
       <c r="J182">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -18325,7 +18325,7 @@
         <v>121.139207</v>
       </c>
       <c r="J187">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -18357,7 +18357,7 @@
         <v>121.560361</v>
       </c>
       <c r="J188">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -18485,7 +18485,7 @@
         <v>121.69748</v>
       </c>
       <c r="J192">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -18581,7 +18581,7 @@
         <v>121.558399</v>
       </c>
       <c r="J195">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -18645,7 +18645,7 @@
         <v>121.415693</v>
       </c>
       <c r="J197">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -18773,7 +18773,7 @@
         <v>121.280158</v>
       </c>
       <c r="J201">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -18837,7 +18837,7 @@
         <v>121.522859</v>
       </c>
       <c r="J203">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -18869,7 +18869,7 @@
         <v>121.538865</v>
       </c>
       <c r="J204">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -18933,7 +18933,7 @@
         <v>121.245413</v>
       </c>
       <c r="J206">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -18965,7 +18965,7 @@
         <v>121.332452</v>
       </c>
       <c r="J207">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -19061,7 +19061,7 @@
         <v>121.648827</v>
       </c>
       <c r="J210">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -19093,7 +19093,7 @@
         <v>121.421356</v>
       </c>
       <c r="J211">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -19125,7 +19125,7 @@
         <v>121.622052</v>
       </c>
       <c r="J212">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -19221,7 +19221,7 @@
         <v>121.188449</v>
       </c>
       <c r="J215">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -19253,7 +19253,7 @@
         <v>121.449479</v>
       </c>
       <c r="J216">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -19285,7 +19285,7 @@
         <v>121.336532</v>
       </c>
       <c r="J217">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -19349,7 +19349,7 @@
         <v>121.06835</v>
       </c>
       <c r="J219">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -19445,7 +19445,7 @@
         <v>121.635085</v>
       </c>
       <c r="J222">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -19509,7 +19509,7 @@
         <v>121.453667</v>
       </c>
       <c r="J224">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -19573,7 +19573,7 @@
         <v>121.429861</v>
       </c>
       <c r="J226">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -19765,7 +19765,7 @@
         <v>121.587228</v>
       </c>
       <c r="J232">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -19797,7 +19797,7 @@
         <v>121.297923</v>
       </c>
       <c r="J233">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -19893,7 +19893,7 @@
         <v>121.340643</v>
       </c>
       <c r="J236">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -20085,7 +20085,7 @@
         <v>121.421356</v>
       </c>
       <c r="J242">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -20149,7 +20149,7 @@
         <v>121.445559</v>
       </c>
       <c r="J244">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -20181,7 +20181,7 @@
         <v>121.165209</v>
       </c>
       <c r="J245">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -20213,7 +20213,7 @@
         <v>121.491441</v>
       </c>
       <c r="J246">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -20245,7 +20245,7 @@
         <v>121.493804</v>
       </c>
       <c r="J247">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -20277,7 +20277,7 @@
         <v>121.320412</v>
       </c>
       <c r="J248">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -20309,7 +20309,7 @@
         <v>121.426128</v>
       </c>
       <c r="J249">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -20373,7 +20373,7 @@
         <v>121.481194</v>
       </c>
       <c r="J251">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -20437,7 +20437,7 @@
         <v>121.195707</v>
       </c>
       <c r="J253">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -20789,7 +20789,7 @@
         <v>121.531296</v>
       </c>
       <c r="J264">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -20821,7 +20821,7 @@
         <v>121.636542</v>
       </c>
       <c r="J265">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -20885,7 +20885,7 @@
         <v>121.328861</v>
       </c>
       <c r="J267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -21045,7 +21045,7 @@
         <v>121.301351</v>
       </c>
       <c r="J272">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -21077,7 +21077,7 @@
         <v>121.427144</v>
       </c>
       <c r="J273">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -21205,7 +21205,7 @@
         <v>121.338593</v>
       </c>
       <c r="J277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -21333,7 +21333,7 @@
         <v>121.532629</v>
       </c>
       <c r="J281">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -21397,7 +21397,7 @@
         <v>121.567694</v>
       </c>
       <c r="J283">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -21429,7 +21429,7 @@
         <v>121.603234</v>
       </c>
       <c r="J284">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -21493,7 +21493,7 @@
         <v>121.59573</v>
       </c>
       <c r="J286">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -21589,7 +21589,7 @@
         <v>121.71408</v>
       </c>
       <c r="J289">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -21685,7 +21685,7 @@
         <v>121.543769</v>
       </c>
       <c r="J292">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -21749,7 +21749,7 @@
         <v>121.423872</v>
       </c>
       <c r="J294">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -21781,7 +21781,7 @@
         <v>121.15193</v>
       </c>
       <c r="J295">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -21909,7 +21909,7 @@
         <v>121.415183</v>
       </c>
       <c r="J299">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -22005,7 +22005,7 @@
         <v>121.294688</v>
       </c>
       <c r="J302">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -22133,7 +22133,7 @@
         <v>121.370517</v>
       </c>
       <c r="J306">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -22165,7 +22165,7 @@
         <v>121.610913</v>
       </c>
       <c r="J307">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -22325,7 +22325,7 @@
         <v>121.480504</v>
       </c>
       <c r="J312">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -22357,7 +22357,7 @@
         <v>121.151564</v>
       </c>
       <c r="J313">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -22389,7 +22389,7 @@
         <v>121.709931</v>
       </c>
       <c r="J314">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -22421,7 +22421,7 @@
         <v>121.622756</v>
       </c>
       <c r="J315">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -22613,7 +22613,7 @@
         <v>121.56056</v>
       </c>
       <c r="J321">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -22741,7 +22741,7 @@
         <v>121.261622</v>
       </c>
       <c r="J325">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -22773,7 +22773,7 @@
         <v>121.399735</v>
       </c>
       <c r="J326">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -22837,7 +22837,7 @@
         <v>121.587012</v>
       </c>
       <c r="J328">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -22901,7 +22901,7 @@
         <v>121.294604</v>
       </c>
       <c r="J330">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -22965,7 +22965,7 @@
         <v>121.449327</v>
       </c>
       <c r="J332">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -23029,7 +23029,7 @@
         <v>121.653435</v>
       </c>
       <c r="J334">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -23061,7 +23061,7 @@
         <v>121.269975</v>
       </c>
       <c r="J335">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -23125,7 +23125,7 @@
         <v>121.342658</v>
       </c>
       <c r="J337">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="338" spans="1:10">
@@ -23157,7 +23157,7 @@
         <v>121.356209</v>
       </c>
       <c r="J338">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="339" spans="1:10">
@@ -23221,7 +23221,7 @@
         <v>121.338506</v>
       </c>
       <c r="J340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:10">
@@ -23317,7 +23317,7 @@
         <v>121.60666</v>
       </c>
       <c r="J343">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="344" spans="1:10">
@@ -23381,7 +23381,7 @@
         <v>121.352333</v>
       </c>
       <c r="J345">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="346" spans="1:10">
@@ -23413,7 +23413,7 @@
         <v>121.42386</v>
       </c>
       <c r="J346">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:10">
@@ -23445,7 +23445,7 @@
         <v>121.285307</v>
       </c>
       <c r="J347">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="348" spans="1:10">
@@ -23477,7 +23477,7 @@
         <v>121.406503</v>
       </c>
       <c r="J348">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="349" spans="1:10">
@@ -23509,7 +23509,7 @@
         <v>121.58527</v>
       </c>
       <c r="J349">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="350" spans="1:10">
@@ -23541,7 +23541,7 @@
         <v>121.607465</v>
       </c>
       <c r="J350">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="351" spans="1:10">
@@ -23637,7 +23637,7 @@
         <v>121.567593</v>
       </c>
       <c r="J353">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="354" spans="1:10">
@@ -23733,7 +23733,7 @@
         <v>121.635085</v>
       </c>
       <c r="J356">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="357" spans="1:10">
@@ -23765,7 +23765,7 @@
         <v>121.165698</v>
       </c>
       <c r="J357">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="358" spans="1:10">
@@ -23861,7 +23861,7 @@
         <v>121.59375</v>
       </c>
       <c r="J360">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="361" spans="1:10">
@@ -23893,7 +23893,7 @@
         <v>121.534628</v>
       </c>
       <c r="J361">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="362" spans="1:10">
@@ -24021,7 +24021,7 @@
         <v>121.250491</v>
       </c>
       <c r="J365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:10">
@@ -24085,7 +24085,7 @@
         <v>121.587928</v>
       </c>
       <c r="J367">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="368" spans="1:10">
@@ -24117,7 +24117,7 @@
         <v>121.481831</v>
       </c>
       <c r="J368">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="369" spans="1:10">
@@ -24149,7 +24149,7 @@
         <v>121.609626</v>
       </c>
       <c r="J369">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="370" spans="1:10">
@@ -24181,7 +24181,7 @@
         <v>121.514619</v>
       </c>
       <c r="J370">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="371" spans="1:10">
@@ -24213,7 +24213,7 @@
         <v>121.447748</v>
       </c>
       <c r="J371">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="372" spans="1:10">
@@ -24277,7 +24277,7 @@
         <v>121.578028</v>
       </c>
       <c r="J373">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="374" spans="1:10">
@@ -24469,7 +24469,7 @@
         <v>121.171053</v>
       </c>
       <c r="J379">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380" spans="1:10">
@@ -24597,7 +24597,7 @@
         <v>121.345236</v>
       </c>
       <c r="J383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:10">
@@ -24757,7 +24757,7 @@
         <v>121.4698</v>
       </c>
       <c r="J388">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="389" spans="1:10">
@@ -24853,7 +24853,7 @@
         <v>121.169991</v>
       </c>
       <c r="J391">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="392" spans="1:10">
@@ -24949,7 +24949,7 @@
         <v>121.416793</v>
       </c>
       <c r="J394">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="395" spans="1:10">
@@ -24981,7 +24981,7 @@
         <v>121.155011</v>
       </c>
       <c r="J395">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="396" spans="1:10">
@@ -25109,7 +25109,7 @@
         <v>121.520526</v>
       </c>
       <c r="J399">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="400" spans="1:10">
@@ -25205,7 +25205,7 @@
         <v>121.257589</v>
       </c>
       <c r="J402">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="403" spans="1:10">
@@ -25237,7 +25237,7 @@
         <v>121.585651</v>
       </c>
       <c r="J403">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="404" spans="1:10">
@@ -25269,7 +25269,7 @@
         <v>121.454344</v>
       </c>
       <c r="J404">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405" spans="1:10">
@@ -25301,7 +25301,7 @@
         <v>121.430025</v>
       </c>
       <c r="J405">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="406" spans="1:10">
@@ -25333,7 +25333,7 @@
         <v>121.289116</v>
       </c>
       <c r="J406">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="407" spans="1:10">
@@ -25365,7 +25365,7 @@
         <v>121.293342</v>
       </c>
       <c r="J407">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="408" spans="1:10">
@@ -25429,7 +25429,7 @@
         <v>121.535197</v>
       </c>
       <c r="J409">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="410" spans="1:10">
@@ -25493,7 +25493,7 @@
         <v>121.289116</v>
       </c>
       <c r="J411">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="412" spans="1:10">
@@ -25557,7 +25557,7 @@
         <v>121.289116</v>
       </c>
       <c r="J413">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="414" spans="1:10">
@@ -25589,7 +25589,7 @@
         <v>121.650021</v>
       </c>
       <c r="J414">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="415" spans="1:10">
@@ -25653,7 +25653,7 @@
         <v>121.289116</v>
       </c>
       <c r="J416">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="417" spans="1:10">
@@ -25685,7 +25685,7 @@
         <v>121.32662</v>
       </c>
       <c r="J417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:10">
@@ -25717,7 +25717,7 @@
         <v>121.296776</v>
       </c>
       <c r="J418">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="419" spans="1:10">
@@ -25749,7 +25749,7 @@
         <v>121.625871</v>
       </c>
       <c r="J419">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="420" spans="1:10">
@@ -25781,7 +25781,7 @@
         <v>121.455836</v>
       </c>
       <c r="J420">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="421" spans="1:10">
@@ -25813,7 +25813,7 @@
         <v>121.728864</v>
       </c>
       <c r="J421">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="422" spans="1:10">
@@ -25845,7 +25845,7 @@
         <v>121.289116</v>
       </c>
       <c r="J422">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="423" spans="1:10">
@@ -25877,7 +25877,7 @@
         <v>121.476284</v>
       </c>
       <c r="J423">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="424" spans="1:10">
@@ -25909,7 +25909,7 @@
         <v>121.306904</v>
       </c>
       <c r="J424">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="425" spans="1:10">
@@ -25941,7 +25941,7 @@
         <v>121.289116</v>
       </c>
       <c r="J425">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="426" spans="1:10">
@@ -26069,7 +26069,7 @@
         <v>121.301364</v>
       </c>
       <c r="J429">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="430" spans="1:10">
@@ -26101,7 +26101,7 @@
         <v>121.335613</v>
       </c>
       <c r="J430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:10">
@@ -26197,7 +26197,7 @@
         <v>121.283505</v>
       </c>
       <c r="J433">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="434" spans="1:10">
@@ -26261,7 +26261,7 @@
         <v>121.282594</v>
       </c>
       <c r="J435">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="436" spans="1:10">
@@ -26293,7 +26293,7 @@
         <v>121.609438</v>
       </c>
       <c r="J436">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="437" spans="1:10">
@@ -26357,7 +26357,7 @@
         <v>121.522922</v>
       </c>
       <c r="J438">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="439" spans="1:10">
@@ -26517,7 +26517,7 @@
         <v>121.336532</v>
       </c>
       <c r="J443">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="444" spans="1:10">
@@ -26581,7 +26581,7 @@
         <v>121.289116</v>
       </c>
       <c r="J445">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="446" spans="1:10">
@@ -26645,7 +26645,7 @@
         <v>121.298256</v>
       </c>
       <c r="J447">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="448" spans="1:10">
@@ -26773,7 +26773,7 @@
         <v>121.376678</v>
       </c>
       <c r="J451">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="452" spans="1:10">
@@ -26805,7 +26805,7 @@
         <v>121.173449</v>
       </c>
       <c r="J452">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453" spans="1:10">
@@ -26837,7 +26837,7 @@
         <v>121.676395</v>
       </c>
       <c r="J453">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="454" spans="1:10">
@@ -26869,7 +26869,7 @@
         <v>121.61179</v>
       </c>
       <c r="J454">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="455" spans="1:10">
@@ -26933,7 +26933,7 @@
         <v>121.482359</v>
       </c>
       <c r="J456">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="457" spans="1:10">
@@ -27029,7 +27029,7 @@
         <v>121.606217</v>
       </c>
       <c r="J459">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="460" spans="1:10">
@@ -27093,7 +27093,7 @@
         <v>121.581985</v>
       </c>
       <c r="J461">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="462" spans="1:10">
@@ -27157,7 +27157,7 @@
         <v>121.519877</v>
       </c>
       <c r="J463">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="464" spans="1:10">
@@ -27189,7 +27189,7 @@
         <v>121.371549</v>
       </c>
       <c r="J464">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="465" spans="1:10">
@@ -27221,7 +27221,7 @@
         <v>121.481737</v>
       </c>
       <c r="J465">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="466" spans="1:10">
@@ -27253,7 +27253,7 @@
         <v>121.514012</v>
       </c>
       <c r="J466">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="467" spans="1:10">
@@ -27381,7 +27381,7 @@
         <v>121.387554</v>
       </c>
       <c r="J470">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="471" spans="1:10">
@@ -27445,7 +27445,7 @@
         <v>121.508888</v>
       </c>
       <c r="J472">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="473" spans="1:10">
@@ -27509,7 +27509,7 @@
         <v>121.063</v>
       </c>
       <c r="J474">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="475" spans="1:10">
@@ -27605,7 +27605,7 @@
         <v>121.623678</v>
       </c>
       <c r="J477">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="478" spans="1:10">
@@ -27701,7 +27701,7 @@
         <v>121.304255</v>
       </c>
       <c r="J480">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="481" spans="1:10">
@@ -27733,7 +27733,7 @@
         <v>121.620083</v>
       </c>
       <c r="J481">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="482" spans="1:10">
@@ -27989,7 +27989,7 @@
         <v>121.387129</v>
       </c>
       <c r="J489">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="490" spans="1:10">
@@ -28117,7 +28117,7 @@
         <v>121.450439</v>
       </c>
       <c r="J493">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="494" spans="1:10">
@@ -28149,7 +28149,7 @@
         <v>121.484805</v>
       </c>
       <c r="J494">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="495" spans="1:10">
@@ -28277,7 +28277,7 @@
         <v>121.521103</v>
       </c>
       <c r="J498">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="499" spans="1:10">
@@ -28373,7 +28373,7 @@
         <v>121.569646</v>
       </c>
       <c r="J501">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="502" spans="1:10">
@@ -28501,7 +28501,7 @@
         <v>121.571741</v>
       </c>
       <c r="J505">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="506" spans="1:10">
@@ -28533,7 +28533,7 @@
         <v>121.433321</v>
       </c>
       <c r="J506">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="507" spans="1:10">
@@ -28661,7 +28661,7 @@
         <v>121.340487</v>
       </c>
       <c r="J510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:10">
@@ -28789,7 +28789,7 @@
         <v>121.341695</v>
       </c>
       <c r="J514">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="515" spans="1:10">
@@ -28853,7 +28853,7 @@
         <v>121.55047</v>
       </c>
       <c r="J516">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="517" spans="1:10">
@@ -28885,7 +28885,7 @@
         <v>121.594069</v>
       </c>
       <c r="J517">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="518" spans="1:10">
@@ -28981,7 +28981,7 @@
         <v>121.482004</v>
       </c>
       <c r="J520">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="521" spans="1:10">
@@ -29077,7 +29077,7 @@
         <v>121.43564</v>
       </c>
       <c r="J523">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="524" spans="1:10">
@@ -29141,7 +29141,7 @@
         <v>121.43564</v>
       </c>
       <c r="J525">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526" spans="1:10">
@@ -29333,7 +29333,7 @@
         <v>121.544545</v>
       </c>
       <c r="J531">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="532" spans="1:10">
@@ -29429,7 +29429,7 @@
         <v>121.418393</v>
       </c>
       <c r="J534">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="535" spans="1:10">
@@ -29461,7 +29461,7 @@
         <v>121.226558</v>
       </c>
       <c r="J535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:10">
@@ -29493,7 +29493,7 @@
         <v>121.624589</v>
       </c>
       <c r="J536">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="537" spans="1:10">
@@ -29525,7 +29525,7 @@
         <v>121.597143</v>
       </c>
       <c r="J537">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="538" spans="1:10">
@@ -29589,7 +29589,7 @@
         <v>121.445699</v>
       </c>
       <c r="J539">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="540" spans="1:10">
@@ -29653,7 +29653,7 @@
         <v>121.519119</v>
       </c>
       <c r="J541">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="542" spans="1:10">
@@ -29781,7 +29781,7 @@
         <v>121.400578</v>
       </c>
       <c r="J545">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="546" spans="1:10">
@@ -29845,7 +29845,7 @@
         <v>121.300362</v>
       </c>
       <c r="J547">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="548" spans="1:10">
@@ -29877,7 +29877,7 @@
         <v>121.30309</v>
       </c>
       <c r="J548">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="549" spans="1:10">
@@ -29941,7 +29941,7 @@
         <v>121.694654</v>
       </c>
       <c r="J550">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="551" spans="1:10">
@@ -29973,7 +29973,7 @@
         <v>121.446524</v>
       </c>
       <c r="J551">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="552" spans="1:10">
@@ -30069,7 +30069,7 @@
         <v>121.558557</v>
       </c>
       <c r="J554">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="555" spans="1:10">
@@ -30165,7 +30165,7 @@
         <v>121.396761</v>
       </c>
       <c r="J557">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="558" spans="1:10">
@@ -30293,7 +30293,7 @@
         <v>121.580124</v>
       </c>
       <c r="J561">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="562" spans="1:10">
@@ -30389,7 +30389,7 @@
         <v>121.696989</v>
       </c>
       <c r="J564">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="565" spans="1:10">
@@ -30421,7 +30421,7 @@
         <v>121.516299</v>
       </c>
       <c r="J565">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="566" spans="1:10">
@@ -30485,7 +30485,7 @@
         <v>121.064155</v>
       </c>
       <c r="J567">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="568" spans="1:10">
@@ -30517,7 +30517,7 @@
         <v>121.559827</v>
       </c>
       <c r="J568">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="569" spans="1:10">
@@ -30549,7 +30549,7 @@
         <v>121.405796</v>
       </c>
       <c r="J569">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:10">
@@ -30581,7 +30581,7 @@
         <v>121.340196</v>
       </c>
       <c r="J570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:10">
@@ -30677,7 +30677,7 @@
         <v>121.4383</v>
       </c>
       <c r="J573">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="574" spans="1:10">
@@ -30709,7 +30709,7 @@
         <v>121.047289</v>
       </c>
       <c r="J574">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="575" spans="1:10">
@@ -30741,7 +30741,7 @@
         <v>121.293973</v>
       </c>
       <c r="J575">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="576" spans="1:10">
@@ -30901,7 +30901,7 @@
         <v>121.307075</v>
       </c>
       <c r="J580">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="581" spans="1:10">
@@ -30933,7 +30933,7 @@
         <v>121.677883</v>
       </c>
       <c r="J581">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="582" spans="1:10">
@@ -30997,7 +30997,7 @@
         <v>121.517708</v>
       </c>
       <c r="J583">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="584" spans="1:10">
@@ -31061,7 +31061,7 @@
         <v>121.174999</v>
       </c>
       <c r="J585">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="586" spans="1:10">
@@ -31125,7 +31125,7 @@
         <v>121.384083</v>
       </c>
       <c r="J587">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="588" spans="1:10">
@@ -31317,7 +31317,7 @@
         <v>121.251647</v>
       </c>
       <c r="J593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:10">
@@ -31349,7 +31349,7 @@
         <v>121.610468</v>
       </c>
       <c r="J594">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="595" spans="1:10">
@@ -31381,7 +31381,7 @@
         <v>121.503249</v>
       </c>
       <c r="J595">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="596" spans="1:10">
@@ -31445,7 +31445,7 @@
         <v>121.195523</v>
       </c>
       <c r="J597">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="598" spans="1:10">
@@ -31509,7 +31509,7 @@
         <v>121.642768</v>
       </c>
       <c r="J599">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="600" spans="1:10">
@@ -31573,7 +31573,7 @@
         <v>121.393478</v>
       </c>
       <c r="J601">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="602" spans="1:10">
@@ -31605,7 +31605,7 @@
         <v>121.17846</v>
       </c>
       <c r="J602">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="603" spans="1:10">
@@ -31637,7 +31637,7 @@
         <v>121.395073</v>
       </c>
       <c r="J603">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="604" spans="1:10">
@@ -31861,7 +31861,7 @@
         <v>121.427038</v>
       </c>
       <c r="J610">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="611" spans="1:10">
@@ -31957,7 +31957,7 @@
         <v>121.516956</v>
       </c>
       <c r="J613">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="614" spans="1:10">
@@ -31989,7 +31989,7 @@
         <v>121.51741</v>
       </c>
       <c r="J614">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="615" spans="1:10">
@@ -32085,7 +32085,7 @@
         <v>121.587938</v>
       </c>
       <c r="J617">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="618" spans="1:10">
@@ -32117,7 +32117,7 @@
         <v>121.439884</v>
       </c>
       <c r="J618">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="619" spans="1:10">
@@ -32149,7 +32149,7 @@
         <v>121.311096</v>
       </c>
       <c r="J619">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="620" spans="1:10">
@@ -32245,7 +32245,7 @@
         <v>121.523495</v>
       </c>
       <c r="J622">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="623" spans="1:10">
@@ -32309,7 +32309,7 @@
         <v>121.47764</v>
       </c>
       <c r="J624">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="625" spans="1:10">
@@ -32341,7 +32341,7 @@
         <v>121.434291</v>
       </c>
       <c r="J625">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="626" spans="1:10">
@@ -32373,7 +32373,7 @@
         <v>121.59577</v>
       </c>
       <c r="J626">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="627" spans="1:10">
@@ -32405,7 +32405,7 @@
         <v>121.433532</v>
       </c>
       <c r="J627">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="628" spans="1:10">
@@ -32597,7 +32597,7 @@
         <v>121.554185</v>
       </c>
       <c r="J633">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="634" spans="1:10">
@@ -32629,7 +32629,7 @@
         <v>121.578851</v>
       </c>
       <c r="J634">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="635" spans="1:10">
@@ -32661,7 +32661,7 @@
         <v>121.773396</v>
       </c>
       <c r="J635">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="636" spans="1:10">
@@ -32917,7 +32917,7 @@
         <v>121.791022</v>
       </c>
       <c r="J643">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="644" spans="1:10">
@@ -33013,7 +33013,7 @@
         <v>121.56871</v>
       </c>
       <c r="J646">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="647" spans="1:10">
@@ -33077,7 +33077,7 @@
         <v>121.532885</v>
       </c>
       <c r="J648">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="649" spans="1:10">
@@ -33109,7 +33109,7 @@
         <v>121.448367</v>
       </c>
       <c r="J649">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="650" spans="1:10">
@@ -33141,7 +33141,7 @@
         <v>121.543115</v>
       </c>
       <c r="J650">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="651" spans="1:10">
@@ -33173,7 +33173,7 @@
         <v>121.543115</v>
       </c>
       <c r="J651">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="652" spans="1:10">
@@ -33205,7 +33205,7 @@
         <v>121.417511</v>
       </c>
       <c r="J652">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="653" spans="1:10">
@@ -33237,7 +33237,7 @@
         <v>121.626412</v>
       </c>
       <c r="J653">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="654" spans="1:10">
@@ -33269,7 +33269,7 @@
         <v>121.424118</v>
       </c>
       <c r="J654">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="655" spans="1:10">
@@ -33301,7 +33301,7 @@
         <v>121.495412</v>
       </c>
       <c r="J655">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="656" spans="1:10">
@@ -33333,7 +33333,7 @@
         <v>121.582509</v>
       </c>
       <c r="J656">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="657" spans="1:10">
@@ -33493,7 +33493,7 @@
         <v>121.339294</v>
       </c>
       <c r="J661">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="662" spans="1:10">
@@ -33557,7 +33557,7 @@
         <v>121.513981</v>
       </c>
       <c r="J663">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="664" spans="1:10">
@@ -33621,7 +33621,7 @@
         <v>121.240341</v>
       </c>
       <c r="J665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:10">
@@ -33749,7 +33749,7 @@
         <v>121.306832</v>
       </c>
       <c r="J669">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="670" spans="1:10">
@@ -33781,7 +33781,7 @@
         <v>121.48295</v>
       </c>
       <c r="J670">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="671" spans="1:10">
@@ -33813,7 +33813,7 @@
         <v>121.578756</v>
       </c>
       <c r="J671">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="672" spans="1:10">
@@ -33845,7 +33845,7 @@
         <v>121.419817</v>
       </c>
       <c r="J672">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673" spans="1:10">
@@ -33909,7 +33909,7 @@
         <v>121.470071</v>
       </c>
       <c r="J674">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="675" spans="1:10">
@@ -33973,7 +33973,7 @@
         <v>121.426735</v>
       </c>
       <c r="J676">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="677" spans="1:10">
@@ -34037,7 +34037,7 @@
         <v>121.576183</v>
       </c>
       <c r="J678">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="679" spans="1:10">
@@ -34101,7 +34101,7 @@
         <v>121.601513</v>
       </c>
       <c r="J680">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="681" spans="1:10">
@@ -34229,7 +34229,7 @@
         <v>121.439514</v>
       </c>
       <c r="J684">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="685" spans="1:10">
@@ -34325,7 +34325,7 @@
         <v>121.502125</v>
       </c>
       <c r="J687">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="688" spans="1:10">
@@ -34389,7 +34389,7 @@
         <v>121.549007</v>
       </c>
       <c r="J689">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="690" spans="1:10">
@@ -34453,7 +34453,7 @@
         <v>121.483109</v>
       </c>
       <c r="J691">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="692" spans="1:10">
@@ -34549,7 +34549,7 @@
         <v>121.42736</v>
       </c>
       <c r="J694">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="695" spans="1:10">
@@ -34581,7 +34581,7 @@
         <v>121.311035</v>
       </c>
       <c r="J695">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="696" spans="1:10">
@@ -34645,7 +34645,7 @@
         <v>121.647822</v>
       </c>
       <c r="J697">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="698" spans="1:10">
@@ -34741,7 +34741,7 @@
         <v>121.369258</v>
       </c>
       <c r="J700">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="701" spans="1:10">
@@ -34805,7 +34805,7 @@
         <v>121.530621</v>
       </c>
       <c r="J702">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="703" spans="1:10">
@@ -34901,7 +34901,7 @@
         <v>121.514139</v>
       </c>
       <c r="J705">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="706" spans="1:10">
@@ -34965,7 +34965,7 @@
         <v>121.612703</v>
       </c>
       <c r="J707">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="708" spans="1:10">
@@ -35029,7 +35029,7 @@
         <v>121.340752</v>
       </c>
       <c r="J709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:10">
@@ -35221,7 +35221,7 @@
         <v>121.47147</v>
       </c>
       <c r="J715">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="716" spans="1:10">
@@ -35253,7 +35253,7 @@
         <v>121.426962</v>
       </c>
       <c r="J716">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="717" spans="1:10">
@@ -35317,7 +35317,7 @@
         <v>121.562111</v>
       </c>
       <c r="J718">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="719" spans="1:10">
@@ -35349,7 +35349,7 @@
         <v>121.345466</v>
       </c>
       <c r="J719">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="720" spans="1:10">
@@ -35381,7 +35381,7 @@
         <v>121.705306</v>
       </c>
       <c r="J720">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="721" spans="1:10">
@@ -35509,7 +35509,7 @@
         <v>121.516126</v>
       </c>
       <c r="J724">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="725" spans="1:10">
@@ -35573,7 +35573,7 @@
         <v>121.417834</v>
       </c>
       <c r="J726">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="727" spans="1:10">
@@ -35605,7 +35605,7 @@
         <v>121.178222</v>
       </c>
       <c r="J727">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="728" spans="1:10">
@@ -35701,7 +35701,7 @@
         <v>121.446218</v>
       </c>
       <c r="J730">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="731" spans="1:10">
@@ -35733,7 +35733,7 @@
         <v>121.529054</v>
       </c>
       <c r="J731">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="732" spans="1:10">
@@ -35797,7 +35797,7 @@
         <v>121.169928</v>
       </c>
       <c r="J733">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="734" spans="1:10">
@@ -35925,7 +35925,7 @@
         <v>121.169231</v>
       </c>
       <c r="J737">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="738" spans="1:10">
@@ -35989,7 +35989,7 @@
         <v>121.523682</v>
       </c>
       <c r="J739">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="740" spans="1:10">
@@ -36085,7 +36085,7 @@
         <v>121.064155</v>
       </c>
       <c r="J742">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="743" spans="1:10">
@@ -36277,7 +36277,7 @@
         <v>121.638554</v>
       </c>
       <c r="J748">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="749" spans="1:10">
@@ -36309,7 +36309,7 @@
         <v>121.511128</v>
       </c>
       <c r="J749">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="750" spans="1:10">
@@ -36405,7 +36405,7 @@
         <v>121.634069</v>
       </c>
       <c r="J752">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="753" spans="1:10">
@@ -36469,7 +36469,7 @@
         <v>121.530579</v>
       </c>
       <c r="J754">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="755" spans="1:10">
@@ -36565,7 +36565,7 @@
         <v>121.658897</v>
       </c>
       <c r="J757">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="758" spans="1:10">
@@ -36757,7 +36757,7 @@
         <v>121.433657</v>
       </c>
       <c r="J763">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="764" spans="1:10">
@@ -36949,7 +36949,7 @@
         <v>121.463274</v>
       </c>
       <c r="J769">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="770" spans="1:10">
@@ -37013,7 +37013,7 @@
         <v>121.57275</v>
       </c>
       <c r="J771">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="772" spans="1:10">
@@ -37045,7 +37045,7 @@
         <v>121.430806</v>
       </c>
       <c r="J772">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="773" spans="1:10">
@@ -37077,7 +37077,7 @@
         <v>121.550062</v>
       </c>
       <c r="J773">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="774" spans="1:10">
@@ -37109,7 +37109,7 @@
         <v>121.464369</v>
       </c>
       <c r="J774">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="775" spans="1:10">
@@ -37173,7 +37173,7 @@
         <v>121.342799</v>
       </c>
       <c r="J776">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="777" spans="1:10">
@@ -37205,7 +37205,7 @@
         <v>121.302039</v>
       </c>
       <c r="J777">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="778" spans="1:10">
@@ -37237,7 +37237,7 @@
         <v>121.562161</v>
       </c>
       <c r="J778">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="779" spans="1:10">
@@ -37269,7 +37269,7 @@
         <v>121.138999</v>
       </c>
       <c r="J779">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="780" spans="1:10">
@@ -37301,7 +37301,7 @@
         <v>121.610563</v>
       </c>
       <c r="J780">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="781" spans="1:10">
@@ -37333,7 +37333,7 @@
         <v>121.54092</v>
       </c>
       <c r="J781">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="782" spans="1:10">
@@ -37525,7 +37525,7 @@
         <v>121.33935</v>
       </c>
       <c r="J787">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="788" spans="1:10">
@@ -37557,7 +37557,7 @@
         <v>121.318625</v>
       </c>
       <c r="J788">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="789" spans="1:10">
@@ -37589,7 +37589,7 @@
         <v>121.549213</v>
       </c>
       <c r="J789">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="790" spans="1:10">
@@ -37621,7 +37621,7 @@
         <v>121.549213</v>
       </c>
       <c r="J790">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="791" spans="1:10">
@@ -37749,7 +37749,7 @@
         <v>121.256318</v>
       </c>
       <c r="J794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:10">
@@ -37813,7 +37813,7 @@
         <v>121.061914</v>
       </c>
       <c r="J796">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="797" spans="1:10">
@@ -37909,7 +37909,7 @@
         <v>121.451094</v>
       </c>
       <c r="J799">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="800" spans="1:10">
@@ -37973,7 +37973,7 @@
         <v>121.373165</v>
       </c>
       <c r="J801">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="802" spans="1:10">
@@ -38037,7 +38037,7 @@
         <v>121.347517</v>
       </c>
       <c r="J803">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="804" spans="1:10">
@@ -38069,7 +38069,7 @@
         <v>121.536287</v>
       </c>
       <c r="J804">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="805" spans="1:10">
@@ -38101,7 +38101,7 @@
         <v>121.43114</v>
       </c>
       <c r="J805">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="806" spans="1:10">
@@ -38165,7 +38165,7 @@
         <v>121.350473</v>
       </c>
       <c r="J807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:10">
@@ -38197,7 +38197,7 @@
         <v>121.537716</v>
       </c>
       <c r="J808">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="809" spans="1:10">
@@ -38389,7 +38389,7 @@
         <v>121.67499</v>
       </c>
       <c r="J814">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="815" spans="1:10">
@@ -38421,7 +38421,7 @@
         <v>121.67499</v>
       </c>
       <c r="J815">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="816" spans="1:10">
@@ -38453,7 +38453,7 @@
         <v>121.072725</v>
       </c>
       <c r="J816">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="817" spans="1:10">
@@ -38709,7 +38709,7 @@
         <v>121.431967</v>
       </c>
       <c r="J824">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="825" spans="1:10">
@@ -38741,7 +38741,7 @@
         <v>121.164471</v>
       </c>
       <c r="J825">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="826" spans="1:10">
@@ -38773,7 +38773,7 @@
         <v>121.151564</v>
       </c>
       <c r="J826">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="827" spans="1:10">
@@ -38901,7 +38901,7 @@
         <v>121.418171</v>
       </c>
       <c r="J830">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="831" spans="1:10">
@@ -38933,7 +38933,7 @@
         <v>121.293328</v>
       </c>
       <c r="J831">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="832" spans="1:10">
@@ -39029,7 +39029,7 @@
         <v>121.176283</v>
       </c>
       <c r="J834">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="835" spans="1:10">
@@ -39061,7 +39061,7 @@
         <v>121.339848</v>
       </c>
       <c r="J835">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="836" spans="1:10">
@@ -39093,7 +39093,7 @@
         <v>121.773572</v>
       </c>
       <c r="J836">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="837" spans="1:10">
@@ -39157,7 +39157,7 @@
         <v>121.286651</v>
       </c>
       <c r="J838">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="839" spans="1:10">
@@ -39189,7 +39189,7 @@
         <v>121.466144</v>
       </c>
       <c r="J839">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="840" spans="1:10">
@@ -39221,7 +39221,7 @@
         <v>121.749346</v>
       </c>
       <c r="J840">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="841" spans="1:10">
@@ -39285,7 +39285,7 @@
         <v>121.464678</v>
       </c>
       <c r="J842">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="843" spans="1:10">
@@ -39381,7 +39381,7 @@
         <v>121.459506</v>
       </c>
       <c r="J845">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="846" spans="1:10">
@@ -39445,7 +39445,7 @@
         <v>121.727102</v>
       </c>
       <c r="J847">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="848" spans="1:10">
@@ -39509,7 +39509,7 @@
         <v>121.268943</v>
       </c>
       <c r="J849">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="850" spans="1:10">
@@ -39541,7 +39541,7 @@
         <v>121.444444</v>
       </c>
       <c r="J850">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="851" spans="1:10">
@@ -39637,7 +39637,7 @@
         <v>121.067973</v>
       </c>
       <c r="J853">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="854" spans="1:10">
@@ -39669,7 +39669,7 @@
         <v>121.347332</v>
       </c>
       <c r="J854">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="855" spans="1:10">
@@ -39701,7 +39701,7 @@
         <v>121.629033</v>
       </c>
       <c r="J855">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="856" spans="1:10">
@@ -39765,7 +39765,7 @@
         <v>121.478744</v>
       </c>
       <c r="J857">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="858" spans="1:10">
@@ -39829,7 +39829,7 @@
         <v>121.353144</v>
       </c>
       <c r="J859">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="860" spans="1:10">
@@ -39861,7 +39861,7 @@
         <v>121.432564</v>
       </c>
       <c r="J860">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="861" spans="1:10">
@@ -40085,7 +40085,7 @@
         <v>121.528211</v>
       </c>
       <c r="J867">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="868" spans="1:10">
@@ -40149,7 +40149,7 @@
         <v>121.634721</v>
       </c>
       <c r="J869">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="870" spans="1:10">
@@ -40213,7 +40213,7 @@
         <v>121.451801</v>
       </c>
       <c r="J871">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="872" spans="1:10">
@@ -40277,7 +40277,7 @@
         <v>121.457281</v>
       </c>
       <c r="J873">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="874" spans="1:10">
@@ -40309,7 +40309,7 @@
         <v>121.457281</v>
       </c>
       <c r="J874">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="875" spans="1:10">
@@ -40405,7 +40405,7 @@
         <v>121.17502</v>
       </c>
       <c r="J877">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="878" spans="1:10">
@@ -40501,7 +40501,7 @@
         <v>121.46527</v>
       </c>
       <c r="J880">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="881" spans="1:10">
@@ -40533,7 +40533,7 @@
         <v>121.437699</v>
       </c>
       <c r="J881">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="882" spans="1:10">
@@ -40565,7 +40565,7 @@
         <v>121.437699</v>
       </c>
       <c r="J882">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="883" spans="1:10">
@@ -40789,7 +40789,7 @@
         <v>121.24103</v>
       </c>
       <c r="J889">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="890" spans="1:10">
@@ -40821,7 +40821,7 @@
         <v>121.600098</v>
       </c>
       <c r="J890">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="891" spans="1:10">
@@ -40853,7 +40853,7 @@
         <v>121.600098</v>
       </c>
       <c r="J891">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="892" spans="1:10">
@@ -40981,7 +40981,7 @@
         <v>121.31506</v>
       </c>
       <c r="J895">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="896" spans="1:10">
@@ -41013,7 +41013,7 @@
         <v>121.442385</v>
       </c>
       <c r="J896">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="897" spans="1:10">
@@ -41141,7 +41141,7 @@
         <v>121.370485</v>
       </c>
       <c r="J900">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="901" spans="1:10">
@@ -41205,7 +41205,7 @@
         <v>121.299177</v>
       </c>
       <c r="J902">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="903" spans="1:10">
@@ -41237,7 +41237,7 @@
         <v>121.31473</v>
       </c>
       <c r="J903">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="904" spans="1:10">
@@ -41269,7 +41269,7 @@
         <v>121.299177</v>
       </c>
       <c r="J904">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="905" spans="1:10">
@@ -41429,7 +41429,7 @@
         <v>121.408842</v>
       </c>
       <c r="J909">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="910" spans="1:10">
@@ -41461,7 +41461,7 @@
         <v>121.18626</v>
       </c>
       <c r="J910">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="911" spans="1:10">
@@ -41525,7 +41525,7 @@
         <v>121.18626</v>
       </c>
       <c r="J912">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="913" spans="1:10">
@@ -41557,7 +41557,7 @@
         <v>121.327968</v>
       </c>
       <c r="J913">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="914" spans="1:10">
@@ -41589,7 +41589,7 @@
         <v>121.327968</v>
       </c>
       <c r="J914">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="915" spans="1:10">
@@ -41653,7 +41653,7 @@
         <v>121.44346</v>
       </c>
       <c r="J916">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="917" spans="1:10">
@@ -41685,7 +41685,7 @@
         <v>121.156101</v>
       </c>
       <c r="J917">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="918" spans="1:10">
@@ -41845,7 +41845,7 @@
         <v>121.062755</v>
       </c>
       <c r="J922">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="923" spans="1:10">
@@ -41941,7 +41941,7 @@
         <v>121.634995</v>
       </c>
       <c r="J925">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="926" spans="1:10">
@@ -41973,7 +41973,7 @@
         <v>121.634995</v>
       </c>
       <c r="J926">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="927" spans="1:10">
@@ -42005,7 +42005,7 @@
         <v>121.148006</v>
       </c>
       <c r="J927">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="928" spans="1:10">
@@ -42133,7 +42133,7 @@
         <v>121.659207</v>
       </c>
       <c r="J931">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="932" spans="1:10">
@@ -42165,7 +42165,7 @@
         <v>121.659207</v>
       </c>
       <c r="J932">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="933" spans="1:10">
@@ -42357,7 +42357,7 @@
         <v>121.205425</v>
       </c>
       <c r="J938">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="939" spans="1:10">
@@ -42421,7 +42421,7 @@
         <v>121.531974</v>
       </c>
       <c r="J940">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="941" spans="1:10">
@@ -42485,7 +42485,7 @@
         <v>121.310322</v>
       </c>
       <c r="J942">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="943" spans="1:10">
@@ -42645,7 +42645,7 @@
         <v>121.434291</v>
       </c>
       <c r="J947">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="948" spans="1:10">
@@ -42677,7 +42677,7 @@
         <v>121.434291</v>
       </c>
       <c r="J948">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="949" spans="1:10">
@@ -42709,7 +42709,7 @@
         <v>121.249083</v>
       </c>
       <c r="J949">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="950" spans="1:10">
@@ -42741,7 +42741,7 @@
         <v>121.287528</v>
       </c>
       <c r="J950">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="951" spans="1:10">
@@ -42773,7 +42773,7 @@
         <v>121.287528</v>
       </c>
       <c r="J951">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="952" spans="1:10">
@@ -42837,7 +42837,7 @@
         <v>121.287528</v>
       </c>
       <c r="J953">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="954" spans="1:10">
@@ -42965,7 +42965,7 @@
         <v>121.520707</v>
       </c>
       <c r="J957">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="958" spans="1:10">
@@ -43349,7 +43349,7 @@
         <v>121.641693</v>
       </c>
       <c r="J969">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="970" spans="1:10">
@@ -43957,7 +43957,7 @@
         <v>121.502446</v>
       </c>
       <c r="J988">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="989" spans="1:10">
@@ -44021,7 +44021,7 @@
         <v>121.306124</v>
       </c>
       <c r="J990">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="991" spans="1:10">
@@ -44085,7 +44085,7 @@
         <v>121.185638</v>
       </c>
       <c r="J992">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="993" spans="1:10">
@@ -44181,7 +44181,7 @@
         <v>121.173461</v>
       </c>
       <c r="J995">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="996" spans="1:10">
@@ -44245,7 +44245,7 @@
         <v>121.562373</v>
       </c>
       <c r="J997">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="998" spans="1:10">
@@ -44277,7 +44277,7 @@
         <v>121.313975</v>
       </c>
       <c r="J998">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="999" spans="1:10">
@@ -44341,7 +44341,7 @@
         <v>121.278643</v>
       </c>
       <c r="J1000">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1001" spans="1:10">
@@ -44501,7 +44501,7 @@
         <v>121.15155</v>
       </c>
       <c r="J1005">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1006" spans="1:10">
@@ -44629,7 +44629,7 @@
         <v>121.647757</v>
       </c>
       <c r="J1009">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1010" spans="1:10">
@@ -44661,7 +44661,7 @@
         <v>121.647757</v>
       </c>
       <c r="J1010">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1011" spans="1:10">
@@ -44693,7 +44693,7 @@
         <v>121.647757</v>
       </c>
       <c r="J1011">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1012" spans="1:10">
@@ -44725,7 +44725,7 @@
         <v>121.647757</v>
       </c>
       <c r="J1012">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1013" spans="1:10">
@@ -44757,7 +44757,7 @@
         <v>121.148006</v>
       </c>
       <c r="J1013">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1014" spans="1:10">
@@ -44789,7 +44789,7 @@
         <v>121.148006</v>
       </c>
       <c r="J1014">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1015" spans="1:10">
@@ -45077,7 +45077,7 @@
         <v>121.16798</v>
       </c>
       <c r="J1023">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1024" spans="1:10">
@@ -45269,7 +45269,7 @@
         <v>121.331474</v>
       </c>
       <c r="J1029">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1030" spans="1:10">
@@ -45333,7 +45333,7 @@
         <v>121.331474</v>
       </c>
       <c r="J1031">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1032" spans="1:10">
@@ -45365,7 +45365,7 @@
         <v>121.333862</v>
       </c>
       <c r="J1032">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1033" spans="1:10">
@@ -45429,7 +45429,7 @@
         <v>121.169538</v>
       </c>
       <c r="J1034">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1035" spans="1:10">
@@ -45493,7 +45493,7 @@
         <v>121.372755</v>
       </c>
       <c r="J1036">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1037" spans="1:10">
@@ -45685,7 +45685,7 @@
         <v>121.423702</v>
       </c>
       <c r="J1042">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1043" spans="1:10">
@@ -45749,7 +45749,7 @@
         <v>121.331474</v>
       </c>
       <c r="J1044">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1045" spans="1:10">
@@ -45781,7 +45781,7 @@
         <v>121.301742</v>
       </c>
       <c r="J1045">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1046" spans="1:10">
@@ -45845,7 +45845,7 @@
         <v>121.331474</v>
       </c>
       <c r="J1047">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1048" spans="1:10">
@@ -45877,7 +45877,7 @@
         <v>121.331474</v>
       </c>
       <c r="J1048">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1049" spans="1:10">
@@ -46005,7 +46005,7 @@
         <v>121.328002</v>
       </c>
       <c r="J1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:10">
@@ -46037,7 +46037,7 @@
         <v>121.329717</v>
       </c>
       <c r="J1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:10">
@@ -46165,7 +46165,7 @@
         <v>121.377972</v>
       </c>
       <c r="J1057">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1058" spans="1:10">
@@ -46325,7 +46325,7 @@
         <v>121.333862</v>
       </c>
       <c r="J1062">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1063" spans="1:10">
@@ -46421,7 +46421,7 @@
         <v>121.434986</v>
       </c>
       <c r="J1065">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1066" spans="1:10">
@@ -46453,7 +46453,7 @@
         <v>121.310322</v>
       </c>
       <c r="J1066">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1067" spans="1:10">
@@ -46517,7 +46517,7 @@
         <v>121.673946</v>
       </c>
       <c r="J1068">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1069" spans="1:10">
@@ -46997,7 +46997,7 @@
         <v>121.417732</v>
       </c>
       <c r="J1083">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1084" spans="1:10">
@@ -47029,7 +47029,7 @@
         <v>121.513415</v>
       </c>
       <c r="J1084">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1085" spans="1:10">
@@ -47061,7 +47061,7 @@
         <v>121.180689</v>
       </c>
       <c r="J1085">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1086" spans="1:10">
@@ -47093,7 +47093,7 @@
         <v>121.513193</v>
       </c>
       <c r="J1086">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1087" spans="1:10">
@@ -47125,7 +47125,7 @@
         <v>121.50159</v>
       </c>
       <c r="J1087">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1088" spans="1:10">
@@ -47189,7 +47189,7 @@
         <v>121.474797</v>
       </c>
       <c r="J1089">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1090" spans="1:10">
@@ -47285,7 +47285,7 @@
         <v>121.478093</v>
       </c>
       <c r="J1092">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1093" spans="1:10">
@@ -47317,7 +47317,7 @@
         <v>121.343943</v>
       </c>
       <c r="J1093">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1094" spans="1:10">
@@ -47349,7 +47349,7 @@
         <v>121.574243</v>
       </c>
       <c r="J1094">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1095" spans="1:10">
@@ -47381,7 +47381,7 @@
         <v>121.343943</v>
       </c>
       <c r="J1095">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1096" spans="1:10">
@@ -47509,7 +47509,7 @@
         <v>121.4495</v>
       </c>
       <c r="J1099">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1100" spans="1:10">
@@ -47637,7 +47637,7 @@
         <v>121.51398</v>
       </c>
       <c r="J1103">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1104" spans="1:10">
@@ -47669,7 +47669,7 @@
         <v>121.317108</v>
       </c>
       <c r="J1104">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1105" spans="1:10">
@@ -47701,7 +47701,7 @@
         <v>121.55798</v>
       </c>
       <c r="J1105">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1106" spans="1:10">
@@ -47765,7 +47765,7 @@
         <v>121.514066</v>
       </c>
       <c r="J1107">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1108" spans="1:10">
@@ -47829,7 +47829,7 @@
         <v>121.790933</v>
       </c>
       <c r="J1109">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1110" spans="1:10">
@@ -47989,7 +47989,7 @@
         <v>121.347018</v>
       </c>
       <c r="J1114">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1115" spans="1:10">
@@ -48021,7 +48021,7 @@
         <v>121.419093</v>
       </c>
       <c r="J1115">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1116" spans="1:10">
@@ -48117,7 +48117,7 @@
         <v>121.235205</v>
       </c>
       <c r="J1118">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1119" spans="1:10">
@@ -48309,7 +48309,7 @@
         <v>121.397064</v>
       </c>
       <c r="J1124">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1125" spans="1:10">
@@ -48341,7 +48341,7 @@
         <v>121.321729</v>
       </c>
       <c r="J1125">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1126" spans="1:10">
@@ -48405,7 +48405,7 @@
         <v>121.58761</v>
       </c>
       <c r="J1127">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1128" spans="1:10">
@@ -48533,7 +48533,7 @@
         <v>121.41213</v>
       </c>
       <c r="J1131">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1132" spans="1:10">
@@ -48597,7 +48597,7 @@
         <v>121.530274</v>
       </c>
       <c r="J1133">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1134" spans="1:10">
@@ -48629,7 +48629,7 @@
         <v>121.59573</v>
       </c>
       <c r="J1134">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1135" spans="1:10">
@@ -48725,7 +48725,7 @@
         <v>121.306835</v>
       </c>
       <c r="J1137">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1138" spans="1:10">
@@ -48757,7 +48757,7 @@
         <v>121.448991</v>
       </c>
       <c r="J1138">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1139" spans="1:10">
@@ -48789,7 +48789,7 @@
         <v>121.480847</v>
       </c>
       <c r="J1139">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1140" spans="1:10">
@@ -48821,7 +48821,7 @@
         <v>121.51398</v>
       </c>
       <c r="J1140">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1141" spans="1:10">
@@ -48917,7 +48917,7 @@
         <v>121.445658</v>
       </c>
       <c r="J1143">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1144" spans="1:10">
@@ -48949,7 +48949,7 @@
         <v>121.399269</v>
       </c>
       <c r="J1144">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1145" spans="1:10">
@@ -49013,7 +49013,7 @@
         <v>121.48551</v>
       </c>
       <c r="J1146">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1147" spans="1:10">
@@ -49045,7 +49045,7 @@
         <v>121.527983</v>
       </c>
       <c r="J1147">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1148" spans="1:10">
@@ -49237,7 +49237,7 @@
         <v>121.485091</v>
       </c>
       <c r="J1153">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1154" spans="1:10">
@@ -49301,7 +49301,7 @@
         <v>121.53677</v>
       </c>
       <c r="J1155">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1156" spans="1:10">
@@ -49333,7 +49333,7 @@
         <v>121.156679</v>
       </c>
       <c r="J1156">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1157" spans="1:10">
@@ -49365,7 +49365,7 @@
         <v>121.430457</v>
       </c>
       <c r="J1157">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1158" spans="1:10">
@@ -49397,7 +49397,7 @@
         <v>121.336624</v>
       </c>
       <c r="J1158">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1159" spans="1:10">
@@ -49429,7 +49429,7 @@
         <v>121.542094</v>
       </c>
       <c r="J1159">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1160" spans="1:10">
@@ -49461,7 +49461,7 @@
         <v>121.53848</v>
       </c>
       <c r="J1160">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1161" spans="1:10">
@@ -49493,7 +49493,7 @@
         <v>121.33938</v>
       </c>
       <c r="J1161">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1162" spans="1:10">
@@ -49525,7 +49525,7 @@
         <v>121.33938</v>
       </c>
       <c r="J1162">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1163" spans="1:10">
@@ -49557,7 +49557,7 @@
         <v>121.567567</v>
       </c>
       <c r="J1163">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1164" spans="1:10">
@@ -49589,7 +49589,7 @@
         <v>121.277122</v>
       </c>
       <c r="J1164">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1165" spans="1:10">
@@ -49717,7 +49717,7 @@
         <v>121.556242</v>
       </c>
       <c r="J1168">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1169" spans="1:10">
@@ -49781,7 +49781,7 @@
         <v>121.580799</v>
       </c>
       <c r="J1170">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1171" spans="1:10">
@@ -49813,7 +49813,7 @@
         <v>121.580799</v>
       </c>
       <c r="J1171">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1172" spans="1:10">
@@ -49845,7 +49845,7 @@
         <v>121.436297</v>
       </c>
       <c r="J1172">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1173" spans="1:10">
@@ -50005,7 +50005,7 @@
         <v>121.563467</v>
       </c>
       <c r="J1177">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1178" spans="1:10">
@@ -50037,7 +50037,7 @@
         <v>121.385638</v>
       </c>
       <c r="J1178">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1179" spans="1:10">
@@ -50101,7 +50101,7 @@
         <v>121.517991</v>
       </c>
       <c r="J1180">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1181" spans="1:10">
@@ -50293,7 +50293,7 @@
         <v>121.516736</v>
       </c>
       <c r="J1186">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1187" spans="1:10">
@@ -50389,7 +50389,7 @@
         <v>121.48335</v>
       </c>
       <c r="J1189">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1190" spans="1:10">
@@ -50453,7 +50453,7 @@
         <v>121.491652</v>
       </c>
       <c r="J1191">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1192" spans="1:10">
@@ -50485,7 +50485,7 @@
         <v>121.584599</v>
       </c>
       <c r="J1192">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1193" spans="1:10">
@@ -50549,7 +50549,7 @@
         <v>121.449838</v>
       </c>
       <c r="J1194">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1195" spans="1:10">
@@ -50581,7 +50581,7 @@
         <v>121.385109</v>
       </c>
       <c r="J1195">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1196" spans="1:10">
@@ -50613,7 +50613,7 @@
         <v>121.425462</v>
       </c>
       <c r="J1196">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1197" spans="1:10">
@@ -50677,7 +50677,7 @@
         <v>121.44588</v>
       </c>
       <c r="J1198">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1199" spans="1:10">
@@ -50741,7 +50741,7 @@
         <v>121.581338</v>
       </c>
       <c r="J1200">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1201" spans="1:10">
@@ -50837,7 +50837,7 @@
         <v>121.532598</v>
       </c>
       <c r="J1203">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1204" spans="1:10">
@@ -51061,7 +51061,7 @@
         <v>121.427439</v>
       </c>
       <c r="J1210">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1211" spans="1:10">
@@ -51093,7 +51093,7 @@
         <v>121.542649</v>
       </c>
       <c r="J1211">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1212" spans="1:10">
@@ -51125,7 +51125,7 @@
         <v>121.542649</v>
       </c>
       <c r="J1212">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1213" spans="1:10">
@@ -51189,7 +51189,7 @@
         <v>121.205389</v>
       </c>
       <c r="J1214">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1215" spans="1:10">
@@ -51221,7 +51221,7 @@
         <v>121.563206</v>
       </c>
       <c r="J1215">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1216" spans="1:10">
@@ -51285,7 +51285,7 @@
         <v>121.433187</v>
       </c>
       <c r="J1217">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1218" spans="1:10">
@@ -51317,7 +51317,7 @@
         <v>121.466617</v>
       </c>
       <c r="J1218">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1219" spans="1:10">
@@ -51381,7 +51381,7 @@
         <v>121.517991</v>
       </c>
       <c r="J1220">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1221" spans="1:10">
@@ -51445,7 +51445,7 @@
         <v>121.394634</v>
       </c>
       <c r="J1222">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1223" spans="1:10">
@@ -51605,7 +51605,7 @@
         <v>121.407007</v>
       </c>
       <c r="J1227">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1228" spans="1:10">
@@ -51637,7 +51637,7 @@
         <v>121.520026</v>
       </c>
       <c r="J1228">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1229" spans="1:10">
@@ -51669,7 +51669,7 @@
         <v>121.585651</v>
       </c>
       <c r="J1229">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1230" spans="1:10">
@@ -51733,7 +51733,7 @@
         <v>121.423843</v>
       </c>
       <c r="J1231">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1232" spans="1:10">
@@ -51765,7 +51765,7 @@
         <v>121.419093</v>
       </c>
       <c r="J1232">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1233" spans="1:10">
@@ -51829,7 +51829,7 @@
         <v>121.547794</v>
       </c>
       <c r="J1234">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1235" spans="1:10">
@@ -51861,7 +51861,7 @@
         <v>121.591952</v>
       </c>
       <c r="J1235">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1236" spans="1:10">
@@ -51893,7 +51893,7 @@
         <v>121.482543</v>
       </c>
       <c r="J1236">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1237" spans="1:10">
@@ -52021,7 +52021,7 @@
         <v>121.390366</v>
       </c>
       <c r="J1240">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1241" spans="1:10">
@@ -52053,7 +52053,7 @@
         <v>121.45836</v>
       </c>
       <c r="J1241">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1242" spans="1:10">
@@ -52085,7 +52085,7 @@
         <v>121.223605</v>
       </c>
       <c r="J1242">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1243" spans="1:10">
@@ -52245,7 +52245,7 @@
         <v>121.630183</v>
       </c>
       <c r="J1247">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1248" spans="1:10">
@@ -52277,7 +52277,7 @@
         <v>121.630183</v>
       </c>
       <c r="J1248">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1249" spans="1:10">
@@ -52373,7 +52373,7 @@
         <v>121.309574</v>
       </c>
       <c r="J1251">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1252" spans="1:10">
@@ -52405,7 +52405,7 @@
         <v>121.545306</v>
       </c>
       <c r="J1252">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1253" spans="1:10">
@@ -52437,7 +52437,7 @@
         <v>121.399055</v>
       </c>
       <c r="J1253">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1254" spans="1:10">
@@ -52469,7 +52469,7 @@
         <v>121.613475</v>
       </c>
       <c r="J1254">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1255" spans="1:10">
@@ -52533,7 +52533,7 @@
         <v>121.369931</v>
       </c>
       <c r="J1256">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1257" spans="1:10">
@@ -52661,7 +52661,7 @@
         <v>121.445658</v>
       </c>
       <c r="J1260">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1261" spans="1:10">
@@ -52725,7 +52725,7 @@
         <v>121.622231</v>
       </c>
       <c r="J1262">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1263" spans="1:10">
@@ -52885,7 +52885,7 @@
         <v>121.35267</v>
       </c>
       <c r="J1267">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1268" spans="1:10">
@@ -52917,7 +52917,7 @@
         <v>121.464396</v>
       </c>
       <c r="J1268">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1269" spans="1:10">
@@ -52949,7 +52949,7 @@
         <v>121.698861</v>
       </c>
       <c r="J1269">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1270" spans="1:10">
@@ -52981,7 +52981,7 @@
         <v>121.236416</v>
       </c>
       <c r="J1270">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1271" spans="1:10">
@@ -53013,7 +53013,7 @@
         <v>121.331895</v>
       </c>
       <c r="J1271">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1272" spans="1:10">
@@ -53045,7 +53045,7 @@
         <v>121.460639</v>
       </c>
       <c r="J1272">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1273" spans="1:10">
@@ -53077,7 +53077,7 @@
         <v>121.41717</v>
       </c>
       <c r="J1273">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1274" spans="1:10">
@@ -53173,7 +53173,7 @@
         <v>121.486427</v>
       </c>
       <c r="J1276">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1277" spans="1:10">
@@ -53237,7 +53237,7 @@
         <v>121.436549</v>
       </c>
       <c r="J1278">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1279" spans="1:10">
@@ -53269,7 +53269,7 @@
         <v>121.606675</v>
       </c>
       <c r="J1279">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1280" spans="1:10">
@@ -53301,7 +53301,7 @@
         <v>121.195595</v>
       </c>
       <c r="J1280">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1281" spans="1:10">
@@ -53365,7 +53365,7 @@
         <v>121.349021</v>
       </c>
       <c r="J1282">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1283" spans="1:10">
@@ -53429,7 +53429,7 @@
         <v>121.567384</v>
       </c>
       <c r="J1284">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1285" spans="1:10">
@@ -53461,7 +53461,7 @@
         <v>121.511947</v>
       </c>
       <c r="J1285">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1286" spans="1:10">
@@ -53493,7 +53493,7 @@
         <v>121.418864</v>
       </c>
       <c r="J1286">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1287" spans="1:10">
@@ -53717,7 +53717,7 @@
         <v>121.47175</v>
       </c>
       <c r="J1293">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1294" spans="1:10">
@@ -53781,7 +53781,7 @@
         <v>121.617403</v>
       </c>
       <c r="J1295">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1296" spans="1:10">
@@ -53813,7 +53813,7 @@
         <v>121.207</v>
       </c>
       <c r="J1296">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1297" spans="1:10">
@@ -53845,7 +53845,7 @@
         <v>121.421245</v>
       </c>
       <c r="J1297">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1298" spans="1:10">
@@ -53877,7 +53877,7 @@
         <v>121.421245</v>
       </c>
       <c r="J1298">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1299" spans="1:10">
@@ -53909,7 +53909,7 @@
         <v>121.322335</v>
       </c>
       <c r="J1299">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1300" spans="1:10">
@@ -53941,7 +53941,7 @@
         <v>121.450363</v>
       </c>
       <c r="J1300">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1301" spans="1:10">
@@ -54005,7 +54005,7 @@
         <v>121.496873</v>
       </c>
       <c r="J1302">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1303" spans="1:10">
@@ -54069,7 +54069,7 @@
         <v>121.469732</v>
       </c>
       <c r="J1304">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1305" spans="1:10">
@@ -54101,7 +54101,7 @@
         <v>121.627987</v>
       </c>
       <c r="J1305">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1306" spans="1:10">
@@ -54133,7 +54133,7 @@
         <v>121.449317</v>
       </c>
       <c r="J1306">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1307" spans="1:10">
@@ -54197,7 +54197,7 @@
         <v>121.549701</v>
       </c>
       <c r="J1308">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1309" spans="1:10">
@@ -54293,7 +54293,7 @@
         <v>121.566624</v>
       </c>
       <c r="J1311">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1312" spans="1:10">
@@ -54325,7 +54325,7 @@
         <v>121.470817</v>
       </c>
       <c r="J1312">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1313" spans="1:10">
@@ -54357,7 +54357,7 @@
         <v>121.470817</v>
       </c>
       <c r="J1313">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1314" spans="1:10">
@@ -54389,7 +54389,7 @@
         <v>121.566647</v>
       </c>
       <c r="J1314">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1315" spans="1:10">
@@ -54453,7 +54453,7 @@
         <v>121.476015</v>
       </c>
       <c r="J1316">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1317" spans="1:10">
@@ -54549,7 +54549,7 @@
         <v>121.50185</v>
       </c>
       <c r="J1319">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1320" spans="1:10">
@@ -54581,7 +54581,7 @@
         <v>121.586858</v>
       </c>
       <c r="J1320">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1321" spans="1:10">
@@ -54645,7 +54645,7 @@
         <v>121.654303</v>
       </c>
       <c r="J1322">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1323" spans="1:10">
@@ -54869,7 +54869,7 @@
         <v>121.352333</v>
       </c>
       <c r="J1329">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1330" spans="1:10">
@@ -54901,7 +54901,7 @@
         <v>121.47506</v>
       </c>
       <c r="J1330">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1331" spans="1:10">
@@ -55061,7 +55061,7 @@
         <v>121.578121</v>
       </c>
       <c r="J1335">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1336" spans="1:10">
@@ -55093,7 +55093,7 @@
         <v>121.578057</v>
       </c>
       <c r="J1336">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1337" spans="1:10">
@@ -55125,7 +55125,7 @@
         <v>121.475391</v>
       </c>
       <c r="J1337">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1338" spans="1:10">
@@ -55157,7 +55157,7 @@
         <v>121.58496</v>
       </c>
       <c r="J1338">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1339" spans="1:10">
@@ -55189,7 +55189,7 @@
         <v>121.59421</v>
       </c>
       <c r="J1339">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1340" spans="1:10">
@@ -55221,7 +55221,7 @@
         <v>121.485486</v>
       </c>
       <c r="J1340">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1341" spans="1:10">
@@ -55285,7 +55285,7 @@
         <v>121.698128</v>
       </c>
       <c r="J1342">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1343" spans="1:10">
@@ -55317,7 +55317,7 @@
         <v>121.594589</v>
       </c>
       <c r="J1343">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1344" spans="1:10">
@@ -55349,7 +55349,7 @@
         <v>121.635638</v>
       </c>
       <c r="J1344">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1345" spans="1:10">
@@ -55381,7 +55381,7 @@
         <v>121.465014</v>
       </c>
       <c r="J1345">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1346" spans="1:10">
@@ -55413,7 +55413,7 @@
         <v>121.465014</v>
       </c>
       <c r="J1346">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1347" spans="1:10">
@@ -55509,7 +55509,7 @@
         <v>121.667039</v>
       </c>
       <c r="J1349">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1350" spans="1:10">
@@ -55541,7 +55541,7 @@
         <v>121.667039</v>
       </c>
       <c r="J1350">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1351" spans="1:10">
@@ -55701,7 +55701,7 @@
         <v>121.333681</v>
       </c>
       <c r="J1355">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1356" spans="1:10">
@@ -55733,7 +55733,7 @@
         <v>121.288766</v>
       </c>
       <c r="J1356">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1357" spans="1:10">
@@ -55829,7 +55829,7 @@
         <v>121.28289</v>
       </c>
       <c r="J1359">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1360" spans="1:10">
@@ -56085,7 +56085,7 @@
         <v>121.521103</v>
       </c>
       <c r="J1367">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1368" spans="1:10">
@@ -56117,7 +56117,7 @@
         <v>121.521103</v>
       </c>
       <c r="J1368">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1369" spans="1:10">
@@ -56309,7 +56309,7 @@
         <v>121.278711</v>
       </c>
       <c r="J1374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375" spans="1:10">
@@ -56629,7 +56629,7 @@
         <v>121.525952</v>
       </c>
       <c r="J1384">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1385" spans="1:10">
@@ -56725,7 +56725,7 @@
         <v>121.522901</v>
       </c>
       <c r="J1387">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1388" spans="1:10">
@@ -56821,7 +56821,7 @@
         <v>121.630216</v>
       </c>
       <c r="J1390">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1391" spans="1:10">
@@ -56853,7 +56853,7 @@
         <v>121.393587</v>
       </c>
       <c r="J1391">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1392" spans="1:10">
@@ -56949,7 +56949,7 @@
         <v>121.167275</v>
       </c>
       <c r="J1394">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1395" spans="1:10">
@@ -57109,7 +57109,7 @@
         <v>121.333681</v>
       </c>
       <c r="J1399">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1400" spans="1:10">
@@ -57237,7 +57237,7 @@
         <v>121.302813</v>
       </c>
       <c r="J1403">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1404" spans="1:10">
@@ -57333,7 +57333,7 @@
         <v>121.333681</v>
       </c>
       <c r="J1406">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1407" spans="1:10">
@@ -57397,7 +57397,7 @@
         <v>121.833314</v>
       </c>
       <c r="J1408">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1409" spans="1:10">
@@ -57589,7 +57589,7 @@
         <v>121.468141</v>
       </c>
       <c r="J1414">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1415" spans="1:10">
@@ -57685,7 +57685,7 @@
         <v>121.184663</v>
       </c>
       <c r="J1417">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1418" spans="1:10">
@@ -57717,7 +57717,7 @@
         <v>121.388655</v>
       </c>
       <c r="J1418">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1419" spans="1:10">
@@ -57781,7 +57781,7 @@
         <v>121.393587</v>
       </c>
       <c r="J1420">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1421" spans="1:10">
@@ -57813,7 +57813,7 @@
         <v>121.468268</v>
       </c>
       <c r="J1421">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1422" spans="1:10">
@@ -57973,7 +57973,7 @@
         <v>121.45035</v>
       </c>
       <c r="J1426">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1427" spans="1:10">
@@ -58037,7 +58037,7 @@
         <v>121.120352</v>
       </c>
       <c r="J1428">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1429" spans="1:10">
@@ -58165,7 +58165,7 @@
         <v>121.140936</v>
       </c>
       <c r="J1432">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1433" spans="1:10">
@@ -58197,7 +58197,7 @@
         <v>121.307273</v>
       </c>
       <c r="J1433">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1434" spans="1:10">
@@ -58261,7 +58261,7 @@
         <v>121.705649</v>
       </c>
       <c r="J1435">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1436" spans="1:10">
@@ -58293,7 +58293,7 @@
         <v>121.698449</v>
       </c>
       <c r="J1436">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1437" spans="1:10">
@@ -58325,7 +58325,7 @@
         <v>121.402193</v>
       </c>
       <c r="J1437">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1438" spans="1:10">
@@ -58357,7 +58357,7 @@
         <v>121.698449</v>
       </c>
       <c r="J1438">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1439" spans="1:10">
@@ -58421,7 +58421,7 @@
         <v>121.698449</v>
       </c>
       <c r="J1440">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1441" spans="1:10">
@@ -58677,7 +58677,7 @@
         <v>121.274398</v>
       </c>
       <c r="J1448">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1449" spans="1:10">
@@ -58709,7 +58709,7 @@
         <v>121.354305</v>
       </c>
       <c r="J1449">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1450" spans="1:10">
@@ -58773,7 +58773,7 @@
         <v>121.274398</v>
       </c>
       <c r="J1451">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1452" spans="1:10">
@@ -58805,7 +58805,7 @@
         <v>121.274398</v>
       </c>
       <c r="J1452">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1453" spans="1:10">
@@ -58933,7 +58933,7 @@
         <v>121.402193</v>
       </c>
       <c r="J1456">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1457" spans="1:10">
@@ -59093,7 +59093,7 @@
         <v>121.14145</v>
       </c>
       <c r="J1461">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1462" spans="1:10">
@@ -59253,7 +59253,7 @@
         <v>121.284906</v>
       </c>
       <c r="J1466">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1467" spans="1:10">
@@ -59285,7 +59285,7 @@
         <v>121.560493</v>
       </c>
       <c r="J1467">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1468" spans="1:10">
@@ -59509,7 +59509,7 @@
         <v>121.274398</v>
       </c>
       <c r="J1474">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
